--- a/examples/Power_WeightsRP.xlsx
+++ b/examples/Power_WeightsRP.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative period for this hour</t>
+          <t>Representative period</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Representative period for this hour</t>
+          <t>Representative period</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">

--- a/examples/Power_WeightsRP.xlsx
+++ b/examples/Power_WeightsRP.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <name val="Calibri"/>
@@ -108,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +134,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment indent="1"/>
@@ -611,7 +616,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>
@@ -762,12 +767,12 @@
       <c r="D8" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -785,12 +790,12 @@
       <c r="D9" s="12" t="n">
         <v>135</v>
       </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -808,12 +813,12 @@
       <c r="D10" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -831,12 +836,12 @@
       <c r="D11" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -854,12 +859,12 @@
       <c r="D12" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -877,12 +882,12 @@
       <c r="D13" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -900,12 +905,12 @@
       <c r="D14" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -963,7 +968,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1119,12 @@
       <c r="D8" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1137,12 +1142,12 @@
       <c r="D9" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1160,12 +1165,12 @@
       <c r="D10" s="12" t="n">
         <v>96</v>
       </c>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1183,12 +1188,12 @@
       <c r="D11" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1206,12 +1211,12 @@
       <c r="D12" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1229,12 +1234,12 @@
       <c r="D13" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1252,12 +1257,12 @@
       <c r="D14" s="12" t="n">
         <v>67</v>
       </c>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>TestPackage1</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>

--- a/examples/Power_WeightsRP.xlsx
+++ b/examples/Power_WeightsRP.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <name val="Calibri"/>
@@ -135,7 +133,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -589,9 +587,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="31.8509375" customWidth="1" min="4" max="4"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
@@ -616,7 +614,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -941,9 +939,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="31.8509375" customWidth="1" min="4" max="4"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="31.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
   </cols>
@@ -968,7 +966,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
